--- a/ch_12/ch12-output.xlsx
+++ b/ch_12/ch12-output.xlsx
@@ -285,7 +285,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10429875" cy="9391650"/>
+    <ext cx="7505700" cy="6753225"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -750,41 +750,41 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>smehaffey0@creativecommons.org</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>485</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>494</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="2" t="n">
         <v>36.6</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>0.675</v>
+      <c r="J2" s="3" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>32.2</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.88125</v>
+        <v>0.8409090909090909</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>32.3</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.825</v>
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>26.2</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="6">
@@ -936,7 +936,7 @@
         <v>27.9</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="7">
@@ -974,7 +974,7 @@
         <v>34.3</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.44375</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="8">
@@ -1012,7 +1012,7 @@
         <v>24.2</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.30625</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -1050,7 +1050,7 @@
         <v>33.5</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>0.30625</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
@@ -1088,7 +1088,7 @@
         <v>35.4</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11">
@@ -1164,7 +1164,7 @@
         <v>30.2</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>0.25</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="13">
@@ -1202,7 +1202,7 @@
         <v>21.5</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.36875</v>
+        <v>0.3409090909090909</v>
       </c>
     </row>
     <row r="14">
@@ -1240,7 +1240,7 @@
         <v>27.9</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.5375</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -1278,45 +1278,45 @@
         <v>29.4</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.2875</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>dquinetk@51.la</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
         <v>501</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>494</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="J16" s="1" t="n">
-        <v>0.675</v>
+      <c r="J16" s="3" t="n">
+        <v>0.725</v>
       </c>
     </row>
     <row r="17">
@@ -1354,7 +1354,7 @@
         <v>19.9</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.025</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="18">
@@ -1392,7 +1392,7 @@
         <v>27.9</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1430,7 +1430,7 @@
         <v>26.5</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>0.15</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="20">
@@ -1468,7 +1468,7 @@
         <v>18.8</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.6375</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="21">
@@ -1506,7 +1506,7 @@
         <v>28.5</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>0.8625</v>
+        <v>0.7727272727272727</v>
       </c>
     </row>
     <row r="22">
@@ -1544,7 +1544,7 @@
         <v>21.8</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.2375</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="23">
@@ -1582,7 +1582,7 @@
         <v>29.1</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.56875</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24">
@@ -1620,7 +1620,7 @@
         <v>14.5</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>0.4625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
@@ -1658,7 +1658,7 @@
         <v>34.4</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.9625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1696,7 +1696,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>0.825</v>
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="27">
@@ -1734,7 +1734,7 @@
         <v>21.6</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.1375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28">
@@ -1772,7 +1772,7 @@
         <v>29.1</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>0.48125</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="29">
@@ -1810,7 +1810,7 @@
         <v>26</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.36875</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="30">
@@ -1848,83 +1848,83 @@
         <v>26.2</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.0125</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>epresser12@globo.com</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="2" t="n">
         <v>506</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="2" t="n">
         <v>509</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>Master's</t>
         </is>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="I31" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="J31" s="5" t="n">
-        <v>0.9125</v>
+      <c r="J31" s="3" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>jyakebovich14@purevolume.com</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
         <v>483</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>493</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>Master's</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="J32" s="1" t="n">
-        <v>0.65</v>
+      <c r="J32" s="3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="33">
@@ -1962,45 +1962,45 @@
         <v>34.5</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0.16875</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>bccomini17@archive.org</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" t="n">
         <v>500</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>495</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" t="n">
         <v>20</v>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>4</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" t="n">
         <v>27.2</v>
       </c>
-      <c r="J34" s="3" t="n">
-        <v>0.7125</v>
+      <c r="J34" s="1" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="35">
@@ -2038,45 +2038,45 @@
         <v>23.3</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.48125</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>ksneath19@instagram.com</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" t="n">
         <v>508</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>497</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" t="n">
         <v>37</v>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>6</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" t="n">
         <v>37.3</v>
       </c>
-      <c r="J36" s="3" t="n">
-        <v>0.75625</v>
+      <c r="J36" s="1" t="n">
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="37">
@@ -2114,7 +2114,7 @@
         <v>32.1</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>0.50625</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="38">
@@ -2152,7 +2152,7 @@
         <v>34.1</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.26875</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39">
@@ -2190,7 +2190,7 @@
         <v>26.2</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="40">
@@ -2228,7 +2228,7 @@
         <v>29</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>0.19375</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="41">
@@ -2266,7 +2266,7 @@
         <v>30</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="42">
@@ -2304,7 +2304,7 @@
         <v>26.2</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43">
@@ -2342,45 +2342,45 @@
         <v>39.6</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.33125</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>lgoodbur1h@posterous.com</t>
         </is>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="4" t="n">
         <v>491</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="4" t="n">
         <v>497</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr">
         <is>
           <t>Doctorate</t>
         </is>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="J44" s="3" t="n">
-        <v>0.75625</v>
+      <c r="J44" s="5" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="45">
@@ -2418,7 +2418,7 @@
         <v>22.8</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.19375</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="46">
@@ -2456,83 +2456,83 @@
         <v>28.8</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>0.2125</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>ldominelli1l@dropbox.com</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="2" t="n">
         <v>491</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="2" t="n">
         <v>487</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47" s="2" t="n">
         <v>31.5</v>
       </c>
-      <c r="J47" s="1" t="n">
-        <v>0.60625</v>
+      <c r="J47" s="3" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>kdron1m@marketwatch.com</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
         <v>490</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>491</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48" s="2" t="n">
         <v>35.3</v>
       </c>
-      <c r="J48" s="1" t="n">
-        <v>0.625</v>
+      <c r="J48" s="3" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="49">
@@ -2570,45 +2570,45 @@
         <v>29.4</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>0.775</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>thuie1p@topsy.com</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="4" t="n">
         <v>507</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="4" t="n">
         <v>501</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="F50" s="4" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H50" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="4" t="n">
         <v>26.9</v>
       </c>
-      <c r="J50" s="3" t="n">
-        <v>0.825</v>
+      <c r="J50" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2646,7 +2646,7 @@
         <v>26.2</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>0.975</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="52">
@@ -2684,7 +2684,7 @@
         <v>30.4</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>0.16875</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="53">
@@ -2722,7 +2722,7 @@
         <v>30.5</v>
       </c>
       <c r="J53" s="3" t="n">
-        <v>0.825</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="54">
@@ -2760,7 +2760,7 @@
         <v>40.9</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.05</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="55">
@@ -2798,7 +2798,7 @@
         <v>33.4</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.44375</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="56">
@@ -2836,7 +2836,7 @@
         <v>27.3</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>0.925</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="57">
@@ -2874,7 +2874,7 @@
         <v>27.2</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>0.60625</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="58">
@@ -2912,7 +2912,7 @@
         <v>23.5</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>0.5375</v>
+        <v>0.4722222222222222</v>
       </c>
     </row>
     <row r="59">
@@ -2950,7 +2950,7 @@
         <v>21.7</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>0.7875</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="60">
@@ -2988,7 +2988,7 @@
         <v>22.5</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>0.0375</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="61">
@@ -3026,7 +3026,7 @@
         <v>27</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>0.5375</v>
+        <v>0.4722222222222222</v>
       </c>
     </row>
     <row r="62">
@@ -3064,45 +3064,45 @@
         <v>25.8</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>0.36875</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>kmatovic27@prnewswire.com</t>
         </is>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" t="n">
         <v>1</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" t="n">
         <v>489</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>496</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" t="n">
         <v>38</v>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="n">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
         <v>4</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" t="n">
         <v>23.1</v>
       </c>
-      <c r="J63" s="3" t="n">
-        <v>0.7375</v>
+      <c r="J63" s="1" t="n">
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="64">
@@ -3140,7 +3140,7 @@
         <v>32.8</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>0.33125</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="65">
@@ -3178,7 +3178,7 @@
         <v>36</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>0.26875</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="66">
@@ -3216,7 +3216,7 @@
         <v>22.5</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>0.36875</v>
+        <v>0.3409090909090909</v>
       </c>
     </row>
     <row r="67">
@@ -3254,45 +3254,45 @@
         <v>28.1</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>0.88125</v>
+        <v>0.8409090909090909</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
+      <c r="A68" t="inlineStr">
         <is>
           <t>nlockett2d@paypal.com</t>
         </is>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" t="n">
         <v>1</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" t="n">
         <v>494</v>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" t="n">
         <v>495</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" t="n">
         <v>32</v>
       </c>
-      <c r="F68" s="2" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="n">
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
         <v>3</v>
       </c>
-      <c r="I68" s="2" t="n">
+      <c r="I68" t="n">
         <v>20.8</v>
       </c>
-      <c r="J68" s="3" t="n">
-        <v>0.7125</v>
+      <c r="J68" s="1" t="n">
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="69">
@@ -3330,7 +3330,7 @@
         <v>33.7</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>0.5875</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="70">
@@ -3368,7 +3368,7 @@
         <v>28.4</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>0.56875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71">
@@ -3406,7 +3406,7 @@
         <v>32.9</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>0.7125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72">
@@ -3444,7 +3444,7 @@
         <v>28</v>
       </c>
       <c r="J72" s="5" t="n">
-        <v>0.9375</v>
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="73">
@@ -3482,7 +3482,7 @@
         <v>33.6</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>0.50625</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="74">
@@ -3520,7 +3520,7 @@
         <v>33.7</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>0.225</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="75">
@@ -3558,7 +3558,7 @@
         <v>31</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>0.0625</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="76">
@@ -3634,45 +3634,45 @@
         <v>27.1</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>dashdown2o@technorati.com</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="2" t="n">
         <v>496</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>494</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
         <is>
           <t>Master's</t>
         </is>
       </c>
-      <c r="H78" t="n">
+      <c r="H78" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78" s="2" t="n">
         <v>18.8</v>
       </c>
-      <c r="J78" s="1" t="n">
-        <v>0.675</v>
+      <c r="J78" s="3" t="n">
+        <v>0.725</v>
       </c>
     </row>
     <row r="79">
@@ -3710,7 +3710,7 @@
         <v>31.4</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="80">
@@ -3748,7 +3748,7 @@
         <v>27.2</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>0.825</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="81">
@@ -3786,7 +3786,7 @@
         <v>26.1</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>0.1125</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
   </sheetData>

--- a/ch_12/ch12-output.xlsx
+++ b/ch_12/ch12-output.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pairplot" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -273,26 +272,21 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7505700" cy="6753225"/>
+    <ext cx="10429875" cy="9391650"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -623,7 +617,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -633,7 +626,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>350</v>
+        <v>480.55</v>
       </c>
     </row>
     <row r="2">
@@ -643,7 +636,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>480.99</v>
       </c>
     </row>
   </sheetData>
@@ -653,25 +646,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -750,41 +724,41 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>smehaffey0@creativecommons.org</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" t="n">
         <v>485</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" t="n">
         <v>494</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" t="n">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" t="n">
         <v>36.6</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>0.9</v>
+      <c r="J2" s="1" t="n">
+        <v>0.675</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +796,7 @@
         <v>32.2</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.88125</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +834,7 @@
         <v>32.3</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +872,7 @@
         <v>26.2</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6">
@@ -936,7 +910,7 @@
         <v>27.9</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.175</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -974,7 +948,7 @@
         <v>34.3</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.55</v>
+        <v>0.44375</v>
       </c>
     </row>
     <row r="8">
@@ -1012,7 +986,7 @@
         <v>24.2</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.30625</v>
       </c>
     </row>
     <row r="9">
@@ -1050,7 +1024,7 @@
         <v>33.5</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>0.3</v>
+        <v>0.30625</v>
       </c>
     </row>
     <row r="10">
@@ -1088,7 +1062,7 @@
         <v>35.4</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11">
@@ -1164,7 +1138,7 @@
         <v>30.2</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13">
@@ -1202,7 +1176,7 @@
         <v>21.5</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.3409090909090909</v>
+        <v>0.36875</v>
       </c>
     </row>
     <row r="14">
@@ -1240,7 +1214,7 @@
         <v>27.9</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.6</v>
+        <v>0.5375</v>
       </c>
     </row>
     <row r="15">
@@ -1278,45 +1252,45 @@
         <v>29.4</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.25</v>
+        <v>0.2875</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>dquinetk@51.la</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" t="n">
         <v>501</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>494</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" t="n">
         <v>29</v>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>8</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" t="n">
         <v>24</v>
       </c>
-      <c r="J16" s="3" t="n">
-        <v>0.725</v>
+      <c r="J16" s="1" t="n">
+        <v>0.675</v>
       </c>
     </row>
     <row r="17">
@@ -1354,7 +1328,7 @@
         <v>19.9</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="18">
@@ -1392,7 +1366,7 @@
         <v>27.9</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
     </row>
     <row r="19">
@@ -1430,7 +1404,7 @@
         <v>26.5</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20">
@@ -1468,7 +1442,7 @@
         <v>18.8</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6375</v>
       </c>
     </row>
     <row r="21">
@@ -1506,7 +1480,7 @@
         <v>28.5</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.8625</v>
       </c>
     </row>
     <row r="22">
@@ -1544,7 +1518,7 @@
         <v>21.8</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="23">
@@ -1582,7 +1556,7 @@
         <v>29.1</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.7</v>
+        <v>0.56875</v>
       </c>
     </row>
     <row r="24">
@@ -1620,7 +1594,7 @@
         <v>14.5</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="25">
@@ -1658,7 +1632,7 @@
         <v>34.4</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>1</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="26">
@@ -1696,7 +1670,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27">
@@ -1734,7 +1708,7 @@
         <v>21.6</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.25</v>
+        <v>0.1375</v>
       </c>
     </row>
     <row r="28">
@@ -1772,7 +1746,7 @@
         <v>29.1</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.48125</v>
       </c>
     </row>
     <row r="29">
@@ -1810,7 +1784,7 @@
         <v>26</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.35</v>
+        <v>0.36875</v>
       </c>
     </row>
     <row r="30">
@@ -1848,83 +1822,83 @@
         <v>26.2</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.05</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>epresser12@globo.com</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="4" t="n">
         <v>506</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="4" t="n">
         <v>509</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>Master's</t>
         </is>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="4" t="n">
         <v>15.8</v>
       </c>
-      <c r="J31" s="3" t="n">
-        <v>0.9</v>
+      <c r="J31" s="5" t="n">
+        <v>0.9125</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>jyakebovich14@purevolume.com</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" t="n">
         <v>4</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" t="n">
         <v>483</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" t="n">
         <v>493</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" t="n">
         <v>32</v>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Master's</t>
         </is>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" t="n">
         <v>4</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" t="n">
         <v>30</v>
       </c>
-      <c r="J32" s="3" t="n">
-        <v>0.85</v>
+      <c r="J32" s="1" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="33">
@@ -1962,45 +1936,45 @@
         <v>34.5</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0.325</v>
+        <v>0.16875</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>bccomini17@archive.org</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>495</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34" s="2" t="n">
         <v>27.2</v>
       </c>
-      <c r="J34" s="1" t="n">
-        <v>0.6666666666666666</v>
+      <c r="J34" s="3" t="n">
+        <v>0.7125</v>
       </c>
     </row>
     <row r="35">
@@ -2038,45 +2012,45 @@
         <v>23.3</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.6</v>
+        <v>0.48125</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>ksneath19@instagram.com</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="2" t="n">
         <v>508</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>497</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" s="2" t="n">
         <v>37.3</v>
       </c>
-      <c r="J36" s="1" t="n">
-        <v>0.6363636363636364</v>
+      <c r="J36" s="3" t="n">
+        <v>0.75625</v>
       </c>
     </row>
     <row r="37">
@@ -2114,7 +2088,7 @@
         <v>32.1</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>0.65</v>
+        <v>0.50625</v>
       </c>
     </row>
     <row r="38">
@@ -2152,7 +2126,7 @@
         <v>34.1</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.2</v>
+        <v>0.26875</v>
       </c>
     </row>
     <row r="39">
@@ -2190,7 +2164,7 @@
         <v>26.2</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.175</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -2228,7 +2202,7 @@
         <v>29</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.19375</v>
       </c>
     </row>
     <row r="41">
@@ -2266,7 +2240,7 @@
         <v>30</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="42">
@@ -2304,7 +2278,7 @@
         <v>26.2</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43">
@@ -2342,45 +2316,45 @@
         <v>39.6</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.45</v>
+        <v>0.33125</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>lgoodbur1h@posterous.com</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C44" s="4" t="n">
+      <c r="C44" s="2" t="n">
         <v>491</v>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="D44" s="2" t="n">
         <v>497</v>
       </c>
-      <c r="E44" s="4" t="n">
+      <c r="E44" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>Doctorate</t>
         </is>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="H44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I44" s="4" t="n">
+      <c r="I44" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="J44" s="5" t="n">
-        <v>0.95</v>
+      <c r="J44" s="3" t="n">
+        <v>0.75625</v>
       </c>
     </row>
     <row r="45">
@@ -2418,7 +2392,7 @@
         <v>22.8</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.15</v>
+        <v>0.19375</v>
       </c>
     </row>
     <row r="46">
@@ -2456,83 +2430,83 @@
         <v>28.8</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>ldominelli1l@dropbox.com</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" t="n">
         <v>4</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" t="n">
         <v>491</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" t="n">
         <v>487</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" t="n">
         <v>26</v>
       </c>
-      <c r="F47" s="2" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>6</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" t="n">
         <v>31.5</v>
       </c>
-      <c r="J47" s="3" t="n">
-        <v>0.75</v>
+      <c r="J47" s="1" t="n">
+        <v>0.60625</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>kdron1m@marketwatch.com</t>
         </is>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" t="n">
         <v>4</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" t="n">
         <v>490</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>491</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" t="n">
         <v>30</v>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>8</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="I48" t="n">
         <v>35.3</v>
       </c>
-      <c r="J48" s="3" t="n">
-        <v>0.8</v>
+      <c r="J48" s="1" t="n">
+        <v>0.625</v>
       </c>
     </row>
     <row r="49">
@@ -2570,45 +2544,45 @@
         <v>29.4</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>0.85</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>thuie1p@topsy.com</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="4" t="n">
+      <c r="C50" s="2" t="n">
         <v>507</v>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="D50" s="2" t="n">
         <v>501</v>
       </c>
-      <c r="E50" s="4" t="n">
+      <c r="E50" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="F50" s="4" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G50" s="4" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H50" s="4" t="n">
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I50" s="4" t="n">
+      <c r="I50" s="2" t="n">
         <v>26.9</v>
       </c>
-      <c r="J50" s="5" t="n">
-        <v>1</v>
+      <c r="J50" s="3" t="n">
+        <v>0.825</v>
       </c>
     </row>
     <row r="51">
@@ -2646,7 +2620,7 @@
         <v>26.2</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="52">
@@ -2684,7 +2658,7 @@
         <v>30.4</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>0.325</v>
+        <v>0.16875</v>
       </c>
     </row>
     <row r="53">
@@ -2722,7 +2696,7 @@
         <v>30.5</v>
       </c>
       <c r="J53" s="3" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54">
@@ -2760,7 +2734,7 @@
         <v>40.9</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="55">
@@ -2798,7 +2772,7 @@
         <v>33.4</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.44375</v>
       </c>
     </row>
     <row r="56">
@@ -2836,7 +2810,7 @@
         <v>27.3</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57">
@@ -2874,7 +2848,7 @@
         <v>27.2</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.60625</v>
       </c>
     </row>
     <row r="58">
@@ -2912,7 +2886,7 @@
         <v>23.5</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.5375</v>
       </c>
     </row>
     <row r="59">
@@ -2950,7 +2924,7 @@
         <v>21.7</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7875</v>
       </c>
     </row>
     <row r="60">
@@ -2988,7 +2962,7 @@
         <v>22.5</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>0.05</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="61">
@@ -3026,7 +3000,7 @@
         <v>27</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.5375</v>
       </c>
     </row>
     <row r="62">
@@ -3064,45 +3038,45 @@
         <v>25.8</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.36875</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>kmatovic27@prnewswire.com</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="2" t="n">
         <v>489</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>496</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63" s="2" t="n">
         <v>23.1</v>
       </c>
-      <c r="J63" s="1" t="n">
-        <v>0.5909090909090909</v>
+      <c r="J63" s="3" t="n">
+        <v>0.7375</v>
       </c>
     </row>
     <row r="64">
@@ -3140,7 +3114,7 @@
         <v>32.8</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.33125</v>
       </c>
     </row>
     <row r="65">
@@ -3178,7 +3152,7 @@
         <v>36</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.26875</v>
       </c>
     </row>
     <row r="66">
@@ -3216,7 +3190,7 @@
         <v>22.5</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>0.3409090909090909</v>
+        <v>0.36875</v>
       </c>
     </row>
     <row r="67">
@@ -3254,45 +3228,45 @@
         <v>28.1</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.88125</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>nlockett2d@paypal.com</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="2" t="n">
         <v>494</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="2" t="n">
         <v>495</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Bachelor's</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>Bachelor's</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68" s="2" t="n">
         <v>20.8</v>
       </c>
-      <c r="J68" s="1" t="n">
-        <v>0.5454545454545454</v>
+      <c r="J68" s="3" t="n">
+        <v>0.7125</v>
       </c>
     </row>
     <row r="69">
@@ -3330,7 +3304,7 @@
         <v>33.7</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>0.65</v>
+        <v>0.5875</v>
       </c>
     </row>
     <row r="70">
@@ -3368,7 +3342,7 @@
         <v>28.4</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>0.5</v>
+        <v>0.56875</v>
       </c>
     </row>
     <row r="71">
@@ -3406,7 +3380,7 @@
         <v>32.9</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>0.8</v>
+        <v>0.7125</v>
       </c>
     </row>
     <row r="72">
@@ -3444,7 +3418,7 @@
         <v>28</v>
       </c>
       <c r="J72" s="5" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="73">
@@ -3482,7 +3456,7 @@
         <v>33.6</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>0.55</v>
+        <v>0.50625</v>
       </c>
     </row>
     <row r="74">
@@ -3520,7 +3494,7 @@
         <v>33.7</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>0.4</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="75">
@@ -3558,7 +3532,7 @@
         <v>31</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="76">
@@ -3634,45 +3608,45 @@
         <v>27.1</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>0.1</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
+      <c r="A78" t="inlineStr">
         <is>
           <t>dashdown2o@technorati.com</t>
         </is>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" t="n">
         <v>3</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C78" t="n">
         <v>496</v>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>494</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" t="n">
         <v>25</v>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>Master's</t>
         </is>
       </c>
-      <c r="H78" s="2" t="n">
+      <c r="H78" t="n">
         <v>4</v>
       </c>
-      <c r="I78" s="2" t="n">
+      <c r="I78" t="n">
         <v>18.8</v>
       </c>
-      <c r="J78" s="3" t="n">
-        <v>0.725</v>
+      <c r="J78" s="1" t="n">
+        <v>0.675</v>
       </c>
     </row>
     <row r="79">
@@ -3710,7 +3684,7 @@
         <v>31.4</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="80">
@@ -3748,7 +3722,7 @@
         <v>27.2</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81">
@@ -3786,7 +3760,7 @@
         <v>26.1</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1125</v>
       </c>
     </row>
   </sheetData>
